--- a/C_Sharp_Selenium/TestData/data1.xlsx
+++ b/C_Sharp_Selenium/TestData/data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusuf\source\repos\C_Sharp_Selenium\C_Sharp_Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7319A1-59D4-4CB1-B8C6-80287A8938C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D75F6D-2A52-473B-8A0F-4935B8A69489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>Created By</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>On Going</t>
+  </si>
+  <si>
+    <t>Donet</t>
+  </si>
+  <si>
+    <t>Sezet</t>
+  </si>
+  <si>
+    <t>Maroun</t>
+  </si>
+  <si>
+    <t>SAWATR</t>
+  </si>
+  <si>
+    <t>LIGTHING</t>
+  </si>
+  <si>
+    <t>SGOUYT</t>
+  </si>
+  <si>
+    <t>HUJIRT</t>
   </si>
 </sst>
 </file>
@@ -137,8 +158,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48F33EE5-93F3-412C-A263-D7F44DFEA1A9}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{48F33EE5-93F3-412C-A263-D7F44DFEA1A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48F33EE5-93F3-412C-A263-D7F44DFEA1A9}" name="Table1" displayName="Table1" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22" xr:uid="{48F33EE5-93F3-412C-A263-D7F44DFEA1A9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{53BB03E7-9851-4968-98D4-400B5B186DFF}" name="Created By"/>
     <tableColumn id="2" xr3:uid="{DA9A7811-F2A8-44BC-9BB8-D27D726B917E}" name="Nmae Of Projecct"/>
@@ -412,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +545,216 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
